--- a/doc/database/case.xlsx
+++ b/doc/database/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCK_Post_to_Sap\TCK_Post_to_Sap\doc\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5809B226-14F6-4605-8538-08B3A9A52342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8730FE2-C8E4-4845-A450-60BE9BC44BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FD839281-9A5A-4FC4-8627-9BB2193E4C3B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD839281-9A5A-4FC4-8627-9BB2193E4C3B}"/>
   </bookViews>
   <sheets>
     <sheet name="GR" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41BDA4-A69F-4151-BCEE-838580DE9F9D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="17.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="17.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -820,7 +820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="17.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -861,7 +861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="17.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -902,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="17.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -943,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="17.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -998,10 +998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E27176A-FA4B-44C8-8F37-4E543B94B0E5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,9 +1010,10 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1045,8 +1046,11 @@
       <c r="E2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
